--- a/topmovies.xlsx
+++ b/topmovies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9afbe51dbe1c5f2c/Desktop/Bennett Sem-3/ECSE231 P^0S/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9afbe51dbe1c5f2c/Desktop/Bennett Sem-3/ECSE231 P^0S/Movie-Dashboard project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{C74876C8-EF13-442F-8875-C59CFF0CF144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB542CEE-5981-49A0-9935-6511156FE38C}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{C74876C8-EF13-442F-8875-C59CFF0CF144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3A47C27-1F61-4857-BD46-1C4D1CA50333}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20159,8 +20159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
